--- a/GameTemplate/Game/Assets/text/@Tips文章.xlsx
+++ b/GameTemplate/Game/Assets/text/@Tips文章.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MyGame\GameTemplate\Game\Assets\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2967D-E239-44BB-AC89-09D9870246FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4C9D8D-F3CD-4AAE-8D53-1745F8B660B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,13 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>右</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>反転オブジェクト</t>
     <rPh sb="0" eb="2">
       <t>ハンテン</t>
@@ -273,35 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これを押せば、一定時間\n透明なアイテムを有効化できそうだ。</t>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ユウコウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UFOに捕まってしまった。どこかに運ばれてしまう。</t>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ハコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UFOに捕まったら、ここに運ばれてきそうだ。</t>
     <rPh sb="4" eb="5">
       <t>ツカ</t>
@@ -505,12 +469,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここを通ると、すべての反転アイテムが反転しそうだ。</t>
+    <t>右</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを押せば、一定時間透明なアイテムを有効化できそうだ。</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うわー。UFOに捕まってしまった。どこかに運ばれてしまう。</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここを通ると、すべてのアイテムが性質反転しそうだ。</t>
     <rPh sb="3" eb="4">
       <t>トオ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンテン</t>
+    <rPh sb="16" eb="18">
+      <t>セイシツ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>ハンテン</t>
@@ -854,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -870,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -878,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -886,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -894,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -902,15 +899,15 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -918,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -926,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -934,20 +931,20 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -960,63 +957,63 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -1024,18 +1021,18 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
